--- a/Test Data/FC_Gallery_All_Loop_Devices.xlsx
+++ b/Test Data/FC_Gallery_All_Loop_Devices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264554D-E951-4B98-A7E4-D0E2B4639187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E633FB-AEDF-40D7-959F-C16FE12AAAF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -354,13 +354,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,22 +690,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -742,37 +742,37 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -803,22 +803,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -911,22 +911,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1094,22 +1094,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1247,22 +1247,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1370,22 +1370,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1468,22 +1468,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
